--- a/Crawling/music/crawled_data/mod_flo/live_flo_20220511_110006.xlsx
+++ b/Crawling/music/crawled_data/mod_flo/live_flo_20220511_110006.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="257">
   <si>
     <t>사이트</t>
   </si>
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>flo</t>
+    <t>Flo</t>
   </si>
   <si>
     <t>2022-05-11</t>
@@ -752,6 +752,9 @@
   </si>
   <si>
     <t>니즈먼트</t>
+  </si>
+  <si>
+    <t>페포니뮤직</t>
   </si>
   <si>
     <t>마크툽컴퍼니</t>
@@ -1194,7 +1197,7 @@
         <v>217</v>
       </c>
       <c r="H2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1246,7 +1249,7 @@
         <v>219</v>
       </c>
       <c r="H4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1298,7 +1301,7 @@
         <v>221</v>
       </c>
       <c r="H6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1324,7 +1327,7 @@
         <v>222</v>
       </c>
       <c r="H7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1350,7 +1353,7 @@
         <v>221</v>
       </c>
       <c r="H8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1402,7 +1405,7 @@
         <v>221</v>
       </c>
       <c r="H10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1428,7 +1431,7 @@
         <v>222</v>
       </c>
       <c r="H11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1454,7 +1457,7 @@
         <v>224</v>
       </c>
       <c r="H12" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1506,7 +1509,7 @@
         <v>221</v>
       </c>
       <c r="H14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1532,7 +1535,7 @@
         <v>221</v>
       </c>
       <c r="H15" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1558,7 +1561,7 @@
         <v>221</v>
       </c>
       <c r="H16" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1584,7 +1587,7 @@
         <v>226</v>
       </c>
       <c r="H17" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1610,7 +1613,7 @@
         <v>227</v>
       </c>
       <c r="H18" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1636,7 +1639,7 @@
         <v>221</v>
       </c>
       <c r="H19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1662,7 +1665,7 @@
         <v>221</v>
       </c>
       <c r="H20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1688,7 +1691,7 @@
         <v>221</v>
       </c>
       <c r="H21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1714,7 +1717,7 @@
         <v>228</v>
       </c>
       <c r="H22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1740,7 +1743,7 @@
         <v>221</v>
       </c>
       <c r="H23" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1766,7 +1769,7 @@
         <v>221</v>
       </c>
       <c r="H24" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1818,7 +1821,7 @@
         <v>229</v>
       </c>
       <c r="H26" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1844,7 +1847,7 @@
         <v>230</v>
       </c>
       <c r="H27" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1870,7 +1873,7 @@
         <v>217</v>
       </c>
       <c r="H28" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1896,7 +1899,7 @@
         <v>221</v>
       </c>
       <c r="H29" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1922,7 +1925,7 @@
         <v>221</v>
       </c>
       <c r="H30" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1948,7 +1951,7 @@
         <v>231</v>
       </c>
       <c r="H31" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1974,7 +1977,7 @@
         <v>221</v>
       </c>
       <c r="H32" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2000,7 +2003,7 @@
         <v>232</v>
       </c>
       <c r="H33" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2052,7 +2055,7 @@
         <v>233</v>
       </c>
       <c r="H35" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2078,7 +2081,7 @@
         <v>234</v>
       </c>
       <c r="H36" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2104,7 +2107,7 @@
         <v>217</v>
       </c>
       <c r="H37" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2130,7 +2133,7 @@
         <v>235</v>
       </c>
       <c r="H38" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2156,7 +2159,7 @@
         <v>219</v>
       </c>
       <c r="H39" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2182,7 +2185,7 @@
         <v>229</v>
       </c>
       <c r="H40" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2208,7 +2211,7 @@
         <v>234</v>
       </c>
       <c r="H41" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2260,7 +2263,7 @@
         <v>234</v>
       </c>
       <c r="H43" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2286,7 +2289,7 @@
         <v>231</v>
       </c>
       <c r="H44" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2312,7 +2315,7 @@
         <v>217</v>
       </c>
       <c r="H45" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2338,7 +2341,7 @@
         <v>236</v>
       </c>
       <c r="H46" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2364,7 +2367,7 @@
         <v>226</v>
       </c>
       <c r="H47" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2390,7 +2393,7 @@
         <v>237</v>
       </c>
       <c r="H48" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2416,7 +2419,7 @@
         <v>238</v>
       </c>
       <c r="H49" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2442,7 +2445,7 @@
         <v>231</v>
       </c>
       <c r="H50" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2468,7 +2471,7 @@
         <v>239</v>
       </c>
       <c r="H51" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2546,7 +2549,7 @@
         <v>240</v>
       </c>
       <c r="H54" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2572,7 +2575,7 @@
         <v>241</v>
       </c>
       <c r="H55" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2598,7 +2601,7 @@
         <v>231</v>
       </c>
       <c r="H56" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2624,7 +2627,7 @@
         <v>222</v>
       </c>
       <c r="H57" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2676,7 +2679,7 @@
         <v>222</v>
       </c>
       <c r="H59" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2754,7 +2757,7 @@
         <v>243</v>
       </c>
       <c r="H62" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2780,7 +2783,7 @@
         <v>224</v>
       </c>
       <c r="H63" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2806,7 +2809,7 @@
         <v>234</v>
       </c>
       <c r="H64" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2832,7 +2835,7 @@
         <v>244</v>
       </c>
       <c r="H65" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2858,7 +2861,7 @@
         <v>238</v>
       </c>
       <c r="H66" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2884,7 +2887,7 @@
         <v>231</v>
       </c>
       <c r="H67" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2910,7 +2913,7 @@
         <v>231</v>
       </c>
       <c r="H68" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2962,7 +2965,7 @@
         <v>231</v>
       </c>
       <c r="H70" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2988,7 +2991,7 @@
         <v>245</v>
       </c>
       <c r="H71" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3040,7 +3043,7 @@
         <v>231</v>
       </c>
       <c r="H73" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3062,6 +3065,12 @@
       <c r="F74" t="s">
         <v>199</v>
       </c>
+      <c r="G74" t="s">
+        <v>242</v>
+      </c>
+      <c r="H74" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
@@ -3086,7 +3095,7 @@
         <v>224</v>
       </c>
       <c r="H75" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3112,7 +3121,7 @@
         <v>217</v>
       </c>
       <c r="H76" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3138,7 +3147,7 @@
         <v>228</v>
       </c>
       <c r="H77" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3160,6 +3169,12 @@
       <c r="F78" t="s">
         <v>202</v>
       </c>
+      <c r="G78" t="s">
+        <v>246</v>
+      </c>
+      <c r="H78" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
@@ -3181,10 +3196,10 @@
         <v>203</v>
       </c>
       <c r="G79" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H79" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3236,7 +3251,7 @@
         <v>244</v>
       </c>
       <c r="H81" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3288,7 +3303,7 @@
         <v>244</v>
       </c>
       <c r="H83" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3311,10 +3326,10 @@
         <v>205</v>
       </c>
       <c r="G84" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H84" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3337,10 +3352,10 @@
         <v>93</v>
       </c>
       <c r="G85" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H85" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3415,10 +3430,10 @@
         <v>208</v>
       </c>
       <c r="G88" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H88" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3444,7 +3459,7 @@
         <v>234</v>
       </c>
       <c r="H89" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3470,7 +3485,7 @@
         <v>234</v>
       </c>
       <c r="H90" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3496,7 +3511,7 @@
         <v>224</v>
       </c>
       <c r="H91" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3571,10 +3586,10 @@
         <v>213</v>
       </c>
       <c r="G94" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H94" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3597,10 +3612,10 @@
         <v>214</v>
       </c>
       <c r="G95" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H95" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3623,10 +3638,10 @@
         <v>104</v>
       </c>
       <c r="G96" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H96" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3675,10 +3690,10 @@
         <v>216</v>
       </c>
       <c r="G98" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H98" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3704,7 +3719,7 @@
         <v>217</v>
       </c>
       <c r="H99" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3727,10 +3742,10 @@
         <v>108</v>
       </c>
       <c r="G100" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H100" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3756,7 +3771,7 @@
         <v>224</v>
       </c>
       <c r="H101" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/Crawling/music/crawled_data/mod_flo/live_flo_20220511_110006.xlsx
+++ b/Crawling/music/crawled_data/mod_flo/live_flo_20220511_110006.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="256">
   <si>
     <t>사이트</t>
   </si>
@@ -688,7 +688,7 @@
     <t>SM</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>스윙</t>
@@ -782,9 +782,6 @@
   </si>
   <si>
     <t>iMe KOREA</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1194,7 @@
         <v>217</v>
       </c>
       <c r="H2" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1249,7 +1246,7 @@
         <v>219</v>
       </c>
       <c r="H4" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1301,7 +1298,7 @@
         <v>221</v>
       </c>
       <c r="H6" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1327,7 +1324,7 @@
         <v>222</v>
       </c>
       <c r="H7" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1353,7 +1350,7 @@
         <v>221</v>
       </c>
       <c r="H8" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1405,7 +1402,7 @@
         <v>221</v>
       </c>
       <c r="H10" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1431,7 +1428,7 @@
         <v>222</v>
       </c>
       <c r="H11" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1457,7 +1454,7 @@
         <v>224</v>
       </c>
       <c r="H12" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1509,7 +1506,7 @@
         <v>221</v>
       </c>
       <c r="H14" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1535,7 +1532,7 @@
         <v>221</v>
       </c>
       <c r="H15" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1561,7 +1558,7 @@
         <v>221</v>
       </c>
       <c r="H16" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1587,7 +1584,7 @@
         <v>226</v>
       </c>
       <c r="H17" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1613,7 +1610,7 @@
         <v>227</v>
       </c>
       <c r="H18" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1639,7 +1636,7 @@
         <v>221</v>
       </c>
       <c r="H19" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1665,7 +1662,7 @@
         <v>221</v>
       </c>
       <c r="H20" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1691,7 +1688,7 @@
         <v>221</v>
       </c>
       <c r="H21" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1717,7 +1714,7 @@
         <v>228</v>
       </c>
       <c r="H22" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1743,7 +1740,7 @@
         <v>221</v>
       </c>
       <c r="H23" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1769,7 +1766,7 @@
         <v>221</v>
       </c>
       <c r="H24" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1821,7 +1818,7 @@
         <v>229</v>
       </c>
       <c r="H26" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1847,7 +1844,7 @@
         <v>230</v>
       </c>
       <c r="H27" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1873,7 +1870,7 @@
         <v>217</v>
       </c>
       <c r="H28" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1899,7 +1896,7 @@
         <v>221</v>
       </c>
       <c r="H29" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1925,7 +1922,7 @@
         <v>221</v>
       </c>
       <c r="H30" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1951,7 +1948,7 @@
         <v>231</v>
       </c>
       <c r="H31" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1977,7 +1974,7 @@
         <v>221</v>
       </c>
       <c r="H32" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2003,7 +2000,7 @@
         <v>232</v>
       </c>
       <c r="H33" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2055,7 +2052,7 @@
         <v>233</v>
       </c>
       <c r="H35" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2081,7 +2078,7 @@
         <v>234</v>
       </c>
       <c r="H36" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2107,7 +2104,7 @@
         <v>217</v>
       </c>
       <c r="H37" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2133,7 +2130,7 @@
         <v>235</v>
       </c>
       <c r="H38" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2159,7 +2156,7 @@
         <v>219</v>
       </c>
       <c r="H39" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2185,7 +2182,7 @@
         <v>229</v>
       </c>
       <c r="H40" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2211,7 +2208,7 @@
         <v>234</v>
       </c>
       <c r="H41" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2263,7 +2260,7 @@
         <v>234</v>
       </c>
       <c r="H43" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2289,7 +2286,7 @@
         <v>231</v>
       </c>
       <c r="H44" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2315,7 +2312,7 @@
         <v>217</v>
       </c>
       <c r="H45" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2341,7 +2338,7 @@
         <v>236</v>
       </c>
       <c r="H46" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2367,7 +2364,7 @@
         <v>226</v>
       </c>
       <c r="H47" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2393,7 +2390,7 @@
         <v>237</v>
       </c>
       <c r="H48" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2419,7 +2416,7 @@
         <v>238</v>
       </c>
       <c r="H49" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2445,7 +2442,7 @@
         <v>231</v>
       </c>
       <c r="H50" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2471,7 +2468,7 @@
         <v>239</v>
       </c>
       <c r="H51" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2549,7 +2546,7 @@
         <v>240</v>
       </c>
       <c r="H54" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2575,7 +2572,7 @@
         <v>241</v>
       </c>
       <c r="H55" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2601,7 +2598,7 @@
         <v>231</v>
       </c>
       <c r="H56" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2627,7 +2624,7 @@
         <v>222</v>
       </c>
       <c r="H57" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2679,7 +2676,7 @@
         <v>222</v>
       </c>
       <c r="H59" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2757,7 +2754,7 @@
         <v>243</v>
       </c>
       <c r="H62" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2783,7 +2780,7 @@
         <v>224</v>
       </c>
       <c r="H63" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2809,7 +2806,7 @@
         <v>234</v>
       </c>
       <c r="H64" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2835,7 +2832,7 @@
         <v>244</v>
       </c>
       <c r="H65" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2861,7 +2858,7 @@
         <v>238</v>
       </c>
       <c r="H66" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2887,7 +2884,7 @@
         <v>231</v>
       </c>
       <c r="H67" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2913,7 +2910,7 @@
         <v>231</v>
       </c>
       <c r="H68" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2965,7 +2962,7 @@
         <v>231</v>
       </c>
       <c r="H70" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2991,7 +2988,7 @@
         <v>245</v>
       </c>
       <c r="H71" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3043,7 +3040,7 @@
         <v>231</v>
       </c>
       <c r="H73" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3095,7 +3092,7 @@
         <v>224</v>
       </c>
       <c r="H75" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3121,7 +3118,7 @@
         <v>217</v>
       </c>
       <c r="H76" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3147,7 +3144,7 @@
         <v>228</v>
       </c>
       <c r="H77" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3173,7 +3170,7 @@
         <v>246</v>
       </c>
       <c r="H78" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3199,7 +3196,7 @@
         <v>247</v>
       </c>
       <c r="H79" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3251,7 +3248,7 @@
         <v>244</v>
       </c>
       <c r="H81" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3303,7 +3300,7 @@
         <v>244</v>
       </c>
       <c r="H83" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3329,7 +3326,7 @@
         <v>248</v>
       </c>
       <c r="H84" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3355,7 +3352,7 @@
         <v>249</v>
       </c>
       <c r="H85" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3433,7 +3430,7 @@
         <v>250</v>
       </c>
       <c r="H88" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3459,7 +3456,7 @@
         <v>234</v>
       </c>
       <c r="H89" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3485,7 +3482,7 @@
         <v>234</v>
       </c>
       <c r="H90" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3511,7 +3508,7 @@
         <v>224</v>
       </c>
       <c r="H91" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3589,7 +3586,7 @@
         <v>251</v>
       </c>
       <c r="H94" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3615,7 +3612,7 @@
         <v>252</v>
       </c>
       <c r="H95" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3641,7 +3638,7 @@
         <v>253</v>
       </c>
       <c r="H96" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3693,7 +3690,7 @@
         <v>254</v>
       </c>
       <c r="H98" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3719,7 +3716,7 @@
         <v>217</v>
       </c>
       <c r="H99" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3745,7 +3742,7 @@
         <v>255</v>
       </c>
       <c r="H100" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3771,7 +3768,7 @@
         <v>224</v>
       </c>
       <c r="H101" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
